--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.25</t>
+          <t>14.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>25.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001718</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信物流产业股票</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.67</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>20.06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.65</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>001718</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>工银瑞信物流产业股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,25 +958,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>9</v>
       </c>
     </row>
@@ -861,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,15 +1022,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.99</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>590001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>中邮核心优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.12</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>002620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>中邮未来新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3959</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.71</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>590001</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮核心优选混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>68.44</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.23</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>004244</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>东方周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>008524</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
+          <t>华泰柏瑞锦瑞债券A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008524</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞锦瑞债券A</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1192,15 +1442,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>20.09</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8587</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.44</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.55</v>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2554,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.68</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2592,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3091,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,17 +3103,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3122,14 +3143,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.53</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3138,14 +3181,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.44</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3154,14 +3219,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.55</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3170,14 +3257,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.68</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3186,13 +3295,775 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9777</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6358</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3946,7 +3947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,17 +3958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3977,14 +3998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.79</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>179.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3993,14 +4036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.53</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3166</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4009,14 +4074,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.44</v>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4025,14 +4112,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.55</v>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4041,14 +4150,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.68</v>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4057,13 +4188,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>12.23</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>20.79</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>12.53</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.55</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.68</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.46</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>164.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4359</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015945</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2269,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2933,7 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3881,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,7 +4732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300777-中简科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>11.69</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>12.23</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>20.79</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>12.53</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.55</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>6.68</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>13</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.46</v>
       </c>
     </row>
@@ -616,7 +633,1637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮睿信增强债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +2623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +3439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3310,7 +4957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +5545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4258,7 +5905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4730,554 +6377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7244</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中邮未来新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7190</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6010</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007777</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮研究精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5953</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>590006</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮中小盘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2416</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1746</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002474</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮睿信增强债券</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1506</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>770001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>德邦优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0515</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0348</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000706</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中邮多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>